--- a/iocBoot/ioc13bmc_linux/Industry Pack wiring.xlsx
+++ b/iocBoot/ioc13bmc_linux/Industry Pack wiring.xlsx
@@ -980,5 +980,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>